--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\University\SOS\Ex3bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942FE826-E850-4F0C-909B-3C1C6D3AC605}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD528F2-BDFC-4D2B-A9E4-64BE9B681A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7335" yWindow="2025" windowWidth="14400" windowHeight="11205" xr2:uid="{9AC732B5-6B8C-45CB-A594-DF6562F8D7AD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>c1</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>sigma</t>
-  </si>
-  <si>
-    <t>reason: stackoverflow says try sigma = 50 for 100x100</t>
   </si>
   <si>
     <t>learning rate</t>
@@ -437,7 +434,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +466,7 @@
         <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -534,6 +531,9 @@
         <f t="shared" ref="H3:H8" si="3">SQRT(B3*C3/(10*PI()))*2.2</f>
         <v>31.64495065463376</v>
       </c>
+      <c r="I3">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -564,6 +564,9 @@
         <f t="shared" si="3"/>
         <v>31.64495065463376</v>
       </c>
+      <c r="I4">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -571,28 +574,31 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(D5/E5)</f>
-        <v>8.3666002653407556</v>
+        <v>38.729833462074168</v>
       </c>
       <c r="C5" s="1">
         <f>SQRT(D5/E5)</f>
-        <v>8.3666002653407556</v>
+        <v>38.729833462074168</v>
       </c>
       <c r="D5">
-        <v>70000</v>
+        <v>15000</v>
       </c>
       <c r="E5">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <f>D5*100</f>
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
       <c r="G5">
         <v>333</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="3"/>
-        <v>3.2839517267930156</v>
+        <v>15.201742576738763</v>
+      </c>
+      <c r="I5">
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -624,6 +630,9 @@
         <f t="shared" si="3"/>
         <v>19.625365277680483</v>
       </c>
+      <c r="I6">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -654,8 +663,8 @@
         <f t="shared" si="3"/>
         <v>7.8501461110721937</v>
       </c>
-      <c r="I7" t="s">
-        <v>14</v>
+      <c r="I7">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -686,6 +695,9 @@
       <c r="H8" s="1">
         <f t="shared" si="3"/>
         <v>7.8501461110721937</v>
+      </c>
+      <c r="I8">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>

--- a/parameters.xlsx
+++ b/parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\University\SOS\Ex3bak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD528F2-BDFC-4D2B-A9E4-64BE9B681A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D697A7-A650-4611-B697-054A018BC25E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="2025" windowWidth="14400" windowHeight="11205" xr2:uid="{9AC732B5-6B8C-45CB-A594-DF6562F8D7AD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{9AC732B5-6B8C-45CB-A594-DF6562F8D7AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,28 +574,28 @@
       </c>
       <c r="B5" s="1">
         <f>SQRT(D5/E5)</f>
-        <v>38.729833462074168</v>
+        <v>31.622776601683793</v>
       </c>
       <c r="C5" s="1">
         <f>SQRT(D5/E5)</f>
-        <v>38.729833462074168</v>
+        <v>31.622776601683793</v>
       </c>
       <c r="D5">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
         <f>D5*100</f>
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="G5">
         <v>333</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="3"/>
-        <v>15.201742576738763</v>
+        <v>12.412170838050638</v>
       </c>
       <c r="I5">
         <v>0.85</v>
@@ -607,28 +607,28 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B7" si="4">SQRT(D6/E6)</f>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C7" si="5">SQRT(D6/E6)</f>
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D6">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
-        <v>250000</v>
+        <v>200000</v>
       </c>
       <c r="G6">
         <v>333</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="3"/>
-        <v>19.625365277680483</v>
+        <v>78.501461110721934</v>
       </c>
       <c r="I6">
         <v>0.85</v>
